--- a/Pset1/Data Sources.xlsx
+++ b/Pset1/Data Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemiguelquinteroholguin/Library/CloudStorage/Dropbox/UChicago/2nd Year Classes/Spatial Econ./Spatial-Psets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemiguelquinteroholguin/Library/CloudStorage/Dropbox/UChicago/2nd Year Classes/Spatial Econ./Spatial-Psets/Pset1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C46E10-70DA-484F-919A-E26D4B3B7F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F3818-18B5-6149-AC34-8B30CB32D7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{914D61DC-7FEF-ED49-8FE4-DA61993BA30F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{914D61DC-7FEF-ED49-8FE4-DA61993BA30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>https://www.zillow.com/research/data/</t>
+  </si>
+  <si>
+    <t>Something some stuff</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E83BFF-14B8-2244-9F2B-5A70093E7F87}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,6 +530,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{12D68889-75C0-5644-B75E-258CFD80D600}"/>
